--- a/biology/Histoire de la zoologie et de la botanique/Carolyn_Merchant/Carolyn_Merchant.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carolyn_Merchant/Carolyn_Merchant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carolyn Merchant est une philosophe écoféministe et historienne des sciences américaine née le 12 juillet 1936 à Rochester dans l'État de New York[1]. Elle est connue pour sa théorie (développée dans son livre éponyme) sur « la mort de la nature » (The Death of Nature), dans laquelle elle identifie le siècle des Lumières comme la période où la science a commencé à atomiser, objectifier et disséquer la nature, nourrissant la conception d'une nature inerte, conception qui deviendra ensuite dominante.
-Ses travaux ont joué un rôle important dans le développement de l'histoire de l'environnement et de l'histoire des sciences[2],[3]. Elle est aujourd'hui professeure d'histoire environnementale, de philosophie et d'éthique à université de Berkeley.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carolyn Merchant est une philosophe écoféministe et historienne des sciences américaine née le 12 juillet 1936 à Rochester dans l'État de New York. Elle est connue pour sa théorie (développée dans son livre éponyme) sur « la mort de la nature » (The Death of Nature), dans laquelle elle identifie le siècle des Lumières comme la période où la science a commencé à atomiser, objectifier et disséquer la nature, nourrissant la conception d'une nature inerte, conception qui deviendra ensuite dominante.
+Ses travaux ont joué un rôle important dans le développement de l'histoire de l'environnement et de l'histoire des sciences,. Elle est aujourd'hui professeure d'histoire environnementale, de philosophie et d'éthique à université de Berkeley.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) The Death of Nature: Women, Ecology, and the Scientific Revolution, San Francisco, 1980 (2de édition 1990)
 traduction française par Margot Lauwers : La Mort de la nature : les femmes, l'écologie et la Révolution scientifique, Marseille, Wildproject, 2021  (ISBN 978-2-38114-003-2).
